--- a/EWOUCnew.xlsx
+++ b/EWOUCnew.xlsx
@@ -53,7 +53,7 @@
     <t xml:space="preserve">Extremely Good</t>
   </si>
   <si>
-    <t xml:space="preserve">EWOUC-comp</t>
+    <t xml:space="preserve">EWOUCNETS-comp</t>
   </si>
 </sst>
 </file>
